--- a/tests/data.gui/test/concentrations/ds.3p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="molecule1_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="molecule1_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -676,106 +677,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.000802465433102749</v>
+        <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00830320353744171</v>
+        <v>0.02</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00783375109513148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.00919754704352848</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00183322365441271</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.000333012960695103</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.22897609249028e-08</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.64275828487632e-11</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.70987687297798e-05</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0146594364780695</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00646959636802895</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.000953074455771112</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00267297232499407</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00085725837805837</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.72928921316219e-07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.79891974696759e-10</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.80898394322719e-06</v>
+        <v>1e-04</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00861070920469076</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00388029752034752</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.2818266382398e-05</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000941681305983629</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.000177395611471615</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.25562197233637e-07</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.68812837641924e-09</v>
+        <v>0.005</v>
       </c>
     </row>
   </sheetData>
@@ -794,82 +735,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
+      <c r="A2" t="n">
+        <v>0.000802465433102749</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00830320353744171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00783375109513148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00919754704352848</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00183322365441271</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000333012960695103</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.22897609249028e-08</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.64275828487632e-11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
+      <c r="A3" t="n">
+        <v>4.70987687297798e-05</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0146594364780695</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00646959636802895</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.000953074455771112</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00267297232499407</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00085725837805837</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.72928921316219e-07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.79891974696759e-10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
+      <c r="A4" t="n">
+        <v>7.80898394322719e-06</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00861070920469076</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00388029752034752</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.2818266382398e-05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.000941681305983629</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000177395611471615</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.25562197233637e-07</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.68812837641924e-09</v>
       </c>
     </row>
   </sheetData>
@@ -888,46 +853,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1.70442722435826e-08</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7.83865541920115e-09</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.16840434497101e-14</v>
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1.56876009578533e-08</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.47572663495344e-10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.7079033459998e-13</v>
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1.51246203061728e-13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.21430643318376e-15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-3.46944695195361e-16</v>
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -948,6 +949,64 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.70442722435826e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>7.83865541920115e-09</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.16840434497101e-14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.56876009578533e-08</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.47572663495344e-10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.7079033459998e-13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.51246203061728e-13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.21430643318376e-15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.46944695195361e-16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/data.gui/test/concentrations/ds.3p/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p/kev.concentrations.data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="molecule1_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="molecule2_fractions" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">molecule1</t>
   </si>
@@ -63,19 +63,19 @@
     <t xml:space="preserve">tot</t>
   </si>
   <si>
-    <t xml:space="preserve">1.00E-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.00E-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00E-03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00E-04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.00E-03</t>
+    <t xml:space="preserve">1,00E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,00E-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00E-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,00E-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,00E-03</t>
   </si>
   <si>
     <t xml:space="preserve">molecule1_1</t>
@@ -105,52 +105,61 @@
     <t xml:space="preserve">rn</t>
   </si>
   <si>
-    <t xml:space="preserve">p(molecule1)</t>
+    <t xml:space="preserve">p(molecule2)</t>
   </si>
   <si>
     <t xml:space="preserve">S_1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.00</t>
+    <t xml:space="preserve"> 2.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.33</t>
   </si>
   <si>
     <t xml:space="preserve">S_2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02</t>
+    <t xml:space="preserve"> 1.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.57</t>
   </si>
   <si>
     <t xml:space="preserve">S_3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.63</t>
+    <t xml:space="preserve"> 2.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.42</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.55</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1e-04</v>
+        <v>0.0001</v>
       </c>
       <c r="B4" t="n">
         <v>0.01</v>
@@ -779,15 +788,15 @@
         <v>0.000333012960695103</v>
       </c>
       <c r="G2" t="n">
-        <v>1.22897609249028e-08</v>
+        <v>0.0000000122897609249028</v>
       </c>
       <c r="H2" t="n">
-        <v>1.64275828487632e-11</v>
+        <v>0.0000000000164275828487632</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4.70987687297798e-05</v>
+        <v>0.0000470987687297798</v>
       </c>
       <c r="B3" t="n">
         <v>0.0146594364780695</v>
@@ -805,15 +814,15 @@
         <v>0.00085725837805837</v>
       </c>
       <c r="G3" t="n">
-        <v>1.72928921316219e-07</v>
+        <v>0.000000172928921316219</v>
       </c>
       <c r="H3" t="n">
-        <v>2.79891974696759e-10</v>
+        <v>0.000000000279891974696759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.80898394322719e-06</v>
+        <v>0.00000780898394322719</v>
       </c>
       <c r="B4" t="n">
         <v>0.00861070920469076</v>
@@ -822,7 +831,7 @@
         <v>0.00388029752034752</v>
       </c>
       <c r="D4" t="n">
-        <v>9.2818266382398e-05</v>
+        <v>0.000092818266382398</v>
       </c>
       <c r="E4" t="n">
         <v>0.000941681305983629</v>
@@ -831,10 +840,10 @@
         <v>0.000177395611471615</v>
       </c>
       <c r="G4" t="n">
-        <v>6.25562197233637e-07</v>
+        <v>0.000000625562197233637</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68812837641924e-09</v>
+        <v>0.00000000168812837641924</v>
       </c>
     </row>
   </sheetData>
@@ -859,16 +868,16 @@
         <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -888,47 +897,47 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -958,35 +967,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.70442722435826e-08</v>
+        <v>0.0000000170442722435826</v>
       </c>
       <c r="B2" t="n">
-        <v>7.83865541920115e-09</v>
+        <v>0.00000000783865541920115</v>
       </c>
       <c r="C2" t="n">
-        <v>2.16840434497101e-14</v>
+        <v>0.0000000000000216840434497101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.56876009578533e-08</v>
+        <v>0.0000000156876009578533</v>
       </c>
       <c r="B3" t="n">
-        <v>7.47572663495344e-10</v>
+        <v>0.000000000747572663495344</v>
       </c>
       <c r="C3" t="n">
-        <v>2.7079033459998e-13</v>
+        <v>0.00000000000027079033459998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.51246203061728e-13</v>
+        <v>0.000000000000151246203061728</v>
       </c>
       <c r="B4" t="n">
-        <v>1.21430643318376e-15</v>
+        <v>0.00000000000000121430643318376</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.46944695195361e-16</v>
+        <v>-0.000000000000000346944695195361</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1014,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
